--- a/UnityClient/MyMultiMeter/Assets/Voice/VoiceList.xlsx
+++ b/UnityClient/MyMultiMeter/Assets/Voice/VoiceList.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>#</t>
   </si>
@@ -33,6 +33,9 @@
     <t>条件</t>
   </si>
   <si>
+    <t>値</t>
+  </si>
+  <si>
     <t>備考</t>
   </si>
   <si>
@@ -48,6 +51,9 @@
     <t>5～11時</t>
   </si>
   <si>
+    <t>時刻（H）</t>
+  </si>
+  <si>
     <t>0101</t>
   </si>
   <si>
@@ -84,6 +90,9 @@
     <t>該当日初起動の場合</t>
   </si>
   <si>
+    <t>最終更新日時</t>
+  </si>
+  <si>
     <t>0200</t>
   </si>
   <si>
@@ -105,31 +114,55 @@
     <t>シフトアップしてください。</t>
   </si>
   <si>
+    <t>点滅警告値以上警告値以下の場合</t>
+  </si>
+  <si>
+    <t>エンジン回転数</t>
+  </si>
+  <si>
     <t>0203</t>
   </si>
   <si>
-    <t>エンジンストール検出</t>
+    <t>エンジンストール検知</t>
+  </si>
+  <si>
+    <t>正常域から0になった場合</t>
+  </si>
+  <si>
+    <t>0300</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>エンジンを回しすぎです。</t>
+  </si>
+  <si>
+    <t>警告値以上が1秒以上の場合</t>
   </si>
   <si>
     <t>0301</t>
   </si>
   <si>
-    <t>警告</t>
-  </si>
-  <si>
     <t>速度が出過ぎてませんか？</t>
   </si>
   <si>
     <t>80Km以上が1秒以上の場合</t>
   </si>
   <si>
+    <t>車速</t>
+  </si>
+  <si>
     <t>0302</t>
   </si>
   <si>
-    <t>エンジンを回しすぎです。</t>
-  </si>
-  <si>
-    <t>Blink以上が1秒以上の場合</t>
+    <t>水温が低下しています、注意してください。</t>
+  </si>
+  <si>
+    <t>水温が正常域に入っていた状態(1分以上)から水温警告値以下の場合</t>
+  </si>
+  <si>
+    <t>水温</t>
   </si>
   <si>
     <t>0303</t>
@@ -148,6 +181,15 @@
   </si>
   <si>
     <t>油温警告値以上の場合</t>
+  </si>
+  <si>
+    <t>油温</t>
+  </si>
+  <si>
+    <t>0400</t>
+  </si>
+  <si>
+    <t>0500</t>
   </si>
 </sst>
 </file>
@@ -321,7 +363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,12 +372,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -521,12 +581,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -635,7 +710,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,153 +719,174 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,19 +1237,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:F14"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="2.20353982300885" customWidth="1"/>
-    <col min="4" max="5" width="38.6371681415929" customWidth="1"/>
+    <col min="4" max="6" width="38.6371681415929" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1166,184 +1262,279 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="3" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="3" t="s">
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E11" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="3" t="s">
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E12" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="F12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F14"/>
+  <autoFilter ref="B1:G15"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/UnityClient/MyMultiMeter/Assets/Voice/VoiceList.xlsx
+++ b/UnityClient/MyMultiMeter/Assets/Voice/VoiceList.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>#</t>
   </si>
@@ -177,13 +177,31 @@
     <t>0304</t>
   </si>
   <si>
+    <t>油温が低下しています、注意してください。</t>
+  </si>
+  <si>
+    <t>油温が正常域に入っていた状態(1分以上)から油温警告値以下の場合</t>
+  </si>
+  <si>
+    <t>油温</t>
+  </si>
+  <si>
+    <t>0305</t>
+  </si>
+  <si>
     <t>油温が上昇しています、注意してください。</t>
   </si>
   <si>
     <t>油温警告値以上の場合</t>
   </si>
   <si>
-    <t>油温</t>
+    <t>0310</t>
+  </si>
+  <si>
+    <t>デバイスの接続が切れました。</t>
+  </si>
+  <si>
+    <t>シリアル接続</t>
   </si>
   <si>
     <t>0400</t>
@@ -197,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -241,6 +259,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -249,40 +282,47 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,9 +334,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,59 +359,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,193 +408,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,30 +632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -659,7 +647,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,15 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -702,6 +690,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -710,25 +722,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,122 +749,122 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,16 +886,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
@@ -1237,10 +1243,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1270,7 +1276,7 @@
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1288,7 +1294,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1306,7 +1312,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1324,7 +1330,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1342,25 +1348,25 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1371,10 +1377,10 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1385,10 +1391,10 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1406,7 +1412,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1424,7 +1430,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1433,7 +1439,7 @@
       <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1442,7 +1448,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1451,90 +1457,124 @@
       <c r="D12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>54</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="C16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="B17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G15"/>
+  <autoFilter ref="B1:G19"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/UnityClient/MyMultiMeter/Assets/Voice/VoiceList.xlsx
+++ b/UnityClient/MyMultiMeter/Assets/Voice/VoiceList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14025" windowHeight="12787"/>
+    <workbookView windowWidth="13860" windowHeight="12705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -244,9 +244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,23 +258,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,39 +297,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,48 +350,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,25 +408,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +564,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,145 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,32 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -652,11 +626,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,25 +657,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,6 +685,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -722,152 +722,155 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -880,10 +883,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
@@ -1246,7 +1258,7 @@
   <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1256,322 +1268,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="8" t="s">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:7">
+      <c r="B12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="8" t="s">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:7">
+      <c r="B13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="8" t="s">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:7">
+      <c r="B14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="8" t="s">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:7">
+      <c r="B15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="8" t="s">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:7">
+      <c r="B16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:G19"/>

--- a/UnityClient/MyMultiMeter/Assets/Voice/VoiceList.xlsx
+++ b/UnityClient/MyMultiMeter/Assets/Voice/VoiceList.xlsx
@@ -237,8 +237,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,27 +254,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,14 +268,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -297,7 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,17 +290,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,59 +368,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,199 +396,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,11 +611,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,32 +674,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,24 +700,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -722,7 +716,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,140 +725,140 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,15 +880,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -902,9 +890,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,7 +1243,7 @@
   <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1288,7 +1273,7 @@
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1306,7 +1291,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1324,7 +1309,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1342,7 +1327,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1360,7 +1345,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1378,7 +1363,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1392,7 +1377,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1406,184 +1391,184 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:7">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:7">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:7">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:7">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:7">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:G19"/>

--- a/UnityClient/MyMultiMeter/Assets/Voice/VoiceList.xlsx
+++ b/UnityClient/MyMultiMeter/Assets/Voice/VoiceList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13860" windowHeight="12705"/>
+    <workbookView windowWidth="16650" windowHeight="12787"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$23</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>#</t>
   </si>
@@ -202,6 +202,30 @@
   </si>
   <si>
     <t>シリアル接続</t>
+  </si>
+  <si>
+    <t>0311</t>
+  </si>
+  <si>
+    <t>再接続しました。</t>
+  </si>
+  <si>
+    <t>0312</t>
+  </si>
+  <si>
+    <t>再接続できませんでした。</t>
+  </si>
+  <si>
+    <t>0320</t>
+  </si>
+  <si>
+    <t>早めのギアチェンジでエコドライブを心掛けましょう。</t>
+  </si>
+  <si>
+    <t>0321</t>
+  </si>
+  <si>
+    <t>2秒車間を意識して安全運転を心掛けましょう。</t>
   </si>
   <si>
     <t>0400</t>
@@ -216,8 +240,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -237,6 +261,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -245,6 +276,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -252,10 +312,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,13 +376,14 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -282,100 +391,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,181 +432,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,6 +650,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -641,20 +674,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,22 +708,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,149 +740,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,13 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
@@ -1240,16 +1258,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:G19"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="2.20353982300885" customWidth="1"/>
-    <col min="4" max="6" width="38.6371681415929" customWidth="1"/>
+    <col min="4" max="4" width="47.5309734513274" customWidth="1"/>
+    <col min="5" max="6" width="38.6371681415929" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
@@ -1273,7 +1292,7 @@
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1291,7 +1310,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1309,7 +1328,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1327,7 +1346,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1345,7 +1364,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1363,7 +1382,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1377,7 +1396,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1391,7 +1410,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1409,7 +1428,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1427,7 +1446,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1445,7 +1464,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:7">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1463,7 +1482,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:7">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1481,7 +1500,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:7">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1499,7 +1518,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:7">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1517,7 +1536,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:7">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1535,43 +1554,103 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G19"/>
+  <autoFilter ref="B1:G23"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
